--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" state="visible" r:id="rId2"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="116">
   <si>
     <t xml:space="preserve">VVSS, Info Romana, 2023-2024</t>
   </si>
@@ -294,9 +294,6 @@
   </si>
   <si>
     <t xml:space="preserve">02. amount = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC3_EC</t>
   </si>
   <si>
     <t xml:space="preserve">yes</t>
@@ -1207,11 +1204,11 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.7"/>
@@ -1437,11 +1434,11 @@
   </sheetPr>
   <dimension ref="B1:N22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="18.14"/>
@@ -1774,10 +1771,10 @@
   <dimension ref="B1:O29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.71"/>
@@ -1905,11 +1902,9 @@
       <c r="H8" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="26"/>
+      <c r="J8" s="26" t="s">
         <v>70</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>71</v>
       </c>
       <c r="K8" s="27" t="n">
         <v>0</v>
@@ -1921,7 +1916,7 @@
         <v>39</v>
       </c>
       <c r="N8" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O8" s="26"/>
     </row>
@@ -1929,7 +1924,7 @@
       <c r="B9" s="17"/>
       <c r="C9" s="24"/>
       <c r="D9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G9" s="15" t="n">
         <v>2</v>
@@ -1939,7 +1934,7 @@
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K9" s="28" t="n">
         <v>1</v>
@@ -1959,7 +1954,7 @@
       <c r="B10" s="17"/>
       <c r="C10" s="24"/>
       <c r="D10" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="15" t="n">
         <v>3</v>
@@ -1969,7 +1964,7 @@
       </c>
       <c r="I10" s="26"/>
       <c r="J10" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K10" s="30" t="n">
         <v>3</v>
@@ -1981,7 +1976,7 @@
         <v>48</v>
       </c>
       <c r="N10" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O10" s="26"/>
     </row>
@@ -1989,7 +1984,7 @@
       <c r="B11" s="17"/>
       <c r="C11" s="24"/>
       <c r="D11" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="15" t="n">
         <v>4</v>
@@ -1999,7 +1994,7 @@
       </c>
       <c r="I11" s="26"/>
       <c r="J11" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K11" s="30" t="n">
         <v>2</v>
@@ -2019,7 +2014,7 @@
       <c r="B12" s="17"/>
       <c r="C12" s="24"/>
       <c r="D12" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2027,45 +2022,45 @@
         <v>2</v>
       </c>
       <c r="C13" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2128,14 +2123,14 @@
   <dimension ref="B1:P21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="0" width="13.14"/>
@@ -2156,7 +2151,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
@@ -2173,16 +2168,16 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="D4" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="E4" s="37" t="s">
         <v>88</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>89</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>30</v>
@@ -2213,7 +2208,7 @@
         <v>36</v>
       </c>
       <c r="N5" s="37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2221,10 +2216,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>91</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>92</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>44</v>
@@ -2249,7 +2244,7 @@
       </c>
       <c r="C7" s="39"/>
       <c r="D7" s="46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E7" s="45" t="s">
         <v>44</v>
@@ -2261,10 +2256,10 @@
         <v>3</v>
       </c>
       <c r="M7" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N7" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2274,7 +2269,7 @@
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E8" s="45" t="s">
         <v>44</v>
@@ -2286,10 +2281,10 @@
         <v>-4</v>
       </c>
       <c r="M8" s="43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N8" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2299,7 +2294,7 @@
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="45" t="s">
         <v>44</v>
@@ -2311,10 +2306,10 @@
         <v>0.5</v>
       </c>
       <c r="M9" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N9" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2327,7 +2322,7 @@
         <v>44</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F10" s="47" t="n">
         <v>2</v>
@@ -2352,7 +2347,7 @@
         <v>44</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11" s="47" t="n">
         <v>3</v>
@@ -2361,10 +2356,10 @@
         <v>0</v>
       </c>
       <c r="M11" s="43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N11" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2377,7 +2372,7 @@
         <v>44</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F12" s="47" t="n">
         <v>1</v>
@@ -2402,7 +2397,7 @@
         <v>44</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F13" s="56" t="n">
         <v>0</v>
@@ -2411,10 +2406,10 @@
         <v>2</v>
       </c>
       <c r="M13" s="56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N13" s="56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2434,7 +2429,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="58"/>
       <c r="D15" s="59"/>
@@ -2453,23 +2448,23 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" s="62"/>
       <c r="E17" s="62"/>
       <c r="F17" s="62"/>
       <c r="G17" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="62" t="s">
         <v>107</v>
-      </c>
-      <c r="H17" s="62" t="s">
-        <v>108</v>
       </c>
       <c r="I17" s="62"/>
       <c r="J17" s="62"/>
       <c r="K17" s="62"/>
       <c r="L17" s="62"/>
       <c r="M17" s="62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N17" s="62"/>
       <c r="O17" s="62"/>
@@ -2477,47 +2472,47 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="E18" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="F18" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="66" t="s">
+      <c r="G18" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="G18" s="67" t="s">
+      <c r="H18" s="65" t="s">
         <v>114</v>
-      </c>
-      <c r="H18" s="65" t="s">
-        <v>115</v>
       </c>
       <c r="I18" s="65"/>
       <c r="J18" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="L18" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="L18" s="66" t="s">
-        <v>112</v>
-      </c>
       <c r="M18" s="68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N18" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="O18" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="O18" s="16" t="s">
+      <c r="P18" s="66" t="s">
         <v>111</v>
-      </c>
-      <c r="P18" s="66" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2539,7 +2534,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="70" t="n">
         <v>8</v>
@@ -2557,7 +2552,7 @@
         <v>44</v>
       </c>
       <c r="H20" s="74" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I20" s="74"/>
       <c r="J20" s="4" t="n">
@@ -2570,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N20" s="76" t="n">
         <v>8</v>
